--- a/spreadsheets/Kayn.xlsx
+++ b/spreadsheets/Kayn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F19C53-AD3E-4F76-B026-3AE4272B184A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC70F1-A999-4F7C-8763-20E62C98BB61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="4350" windowWidth="21600" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>Either form, use R to avoid charm and ult</t>
   </si>
   <si>
-    <t>Red, harder to handlfe if fed</t>
-  </si>
-  <si>
     <t>Blue, he wont be able to do much to you</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>Challenger jungler, usually mid/high challenger</t>
+  </si>
+  <si>
+    <t>Red, harder to handle if fed</t>
   </si>
 </sst>
 </file>
@@ -641,14 +641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="26" width="7.625" customWidth="1"/>
@@ -714,7 +714,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -755,7 +755,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>27</v>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
